--- a/data_processed/20250819/BTCUSDVOLSURFACE_REGULARIZED_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDVOLSURFACE_REGULARIZED_20250819.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -23140,7 +23140,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34741,7 +34741,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35299,7 +35299,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35444,7 +35444,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35614,7 +35614,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36309,7 +36309,7 @@
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36338,7 +36338,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36591,7 +36591,7 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36645,7 +36645,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36849,7 +36849,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36936,7 +36936,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37160,7 +37160,7 @@
       </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37330,7 +37330,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37359,7 +37359,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37388,7 +37388,7 @@
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38361,7 +38361,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38506,7 +38506,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38864,7 +38864,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38922,7 +38922,7 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39096,7 +39096,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39299,7 +39299,7 @@
       </c>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39328,7 +39328,7 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39407,7 +39407,7 @@
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39436,7 +39436,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40209,7 +40209,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40267,7 +40267,7 @@
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40296,7 +40296,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40354,7 +40354,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41203,7 +41203,7 @@
       </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41319,7 +41319,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41460,7 +41460,7 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42313,7 +42313,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250819/BTCUSDVOLSURFACE_REGULARIZED_20250819.xlsx
+++ b/data_processed/20250819/BTCUSDVOLSURFACE_REGULARIZED_20250819.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -23140,7 +23140,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34741,7 +34741,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35299,7 +35299,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35444,7 +35444,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35614,7 +35614,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36309,7 +36309,7 @@
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36338,7 +36338,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36591,7 +36591,7 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36645,7 +36645,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36849,7 +36849,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36936,7 +36936,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37160,7 +37160,7 @@
       </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37330,7 +37330,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37359,7 +37359,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37388,7 +37388,7 @@
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38361,7 +38361,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38506,7 +38506,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38864,7 +38864,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38922,7 +38922,7 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -39096,7 +39096,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -39299,7 +39299,7 @@
       </c>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39328,7 +39328,7 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39407,7 +39407,7 @@
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39436,7 +39436,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40209,7 +40209,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40267,7 +40267,7 @@
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40296,7 +40296,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40354,7 +40354,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41203,7 +41203,7 @@
       </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41319,7 +41319,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41460,7 +41460,7 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42313,7 +42313,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
